--- a/biology/Zoologie/Andrène_à_poils_dorés/Andrène_à_poils_dorés.xlsx
+++ b/biology/Zoologie/Andrène_à_poils_dorés/Andrène_à_poils_dorés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A8ne_%C3%A0_poils_dor%C3%A9s</t>
+          <t>Andrène_à_poils_dorés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrena auricoma
-L'Andrène à poils dorés[2] (Andrena auricoma) est une espèce d'andrènes de la famille des Andrenidae[3],[4],[5].
+L'Andrène à poils dorés (Andrena auricoma) est une espèce d'andrènes de la famille des Andrenidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A8ne_%C3%A0_poils_dor%C3%A9s</t>
+          <t>Andrène_à_poils_dorés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Andrena auricoma[6], un mâle, mesure 9,5 mm[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Andrena auricoma, un mâle, mesure 9,5 mm.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A8ne_%C3%A0_poils_dor%C3%A9s</t>
+          <t>Andrène_à_poils_dorés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Smith, Frederick, 1805-1879, British Museum (Natural History). Department of Zoology., Descriptions of new species of Hymenoptera in the collection of the British museum,  (publication), Inconnu, Londres, 1879, [lire en ligne]</t>
         </is>
